--- a/document/【ファイルサーバ課題】残作業一覧.xlsx
+++ b/document/【ファイルサーバ課題】残作業一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12106e115a071dc4/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12106e115a071dc4/デスクトップ/Git_backUp/1228/push_03/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{CEF5B223-7761-41CD-9893-A338EB2EB0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC998754-4C78-4E72-BD3F-E02D94F68D03}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{CEF5B223-7761-41CD-9893-A338EB2EB0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9418F369-E087-424A-BF57-AD0362887AC2}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{4C7B4C6A-6ECB-4802-A7E9-4F2F2897D9B6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="残作業一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">残作業一覧!$A$2:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">残作業一覧!$A$2:$G$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1225,6 +1225,73 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名、パスワードの更新完了通知未実装</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>コウシンカンリョウツウチ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新完了後のポップアップ通知未実装</t>
+    <rPh sb="0" eb="5">
+      <t>コウシンカンリョウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Emailを設定しているが、内部的に使用可能文字・文字数をどう制限されているか調査出来ていない</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ナイブテキ</t>
+    </rPh>
+    <rPh sb="19" eb="25">
+      <t>シヨウカノウモジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDに半角英数字254文字以下のバリデーション未実装</t>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1611,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62D3F9B-2FAB-4529-9222-A911E0FD5260}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1660,7 +1727,7 @@
     </row>
     <row r="3" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A34" si="0">ROW(A3)-2</f>
+        <f t="shared" ref="A3:A36" si="0">ROW(A3)-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2093,88 +2160,88 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>64</v>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
-        <v>65</v>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="G22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>60</v>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="G23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>67</v>
@@ -2183,61 +2250,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="92.15" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="92.15" x14ac:dyDescent="0.65">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="73.75" x14ac:dyDescent="0.65">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -2246,10 +2313,10 @@
         <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1">
         <v>25</v>
@@ -2261,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -2270,10 +2337,10 @@
         <v>72</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="1">
         <v>25</v>
@@ -2284,44 +2351,44 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:7" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1">
         <v>25</v>
@@ -2333,19 +2400,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" s="1">
         <v>25</v>
@@ -2356,8 +2423,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>17</v>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
@@ -2369,7 +2436,7 @@
         <v>84</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1">
         <v>25</v>
@@ -2380,22 +2447,22 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>63</v>
+      <c r="D33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33">
+        <v>79</v>
+      </c>
+      <c r="G33" s="1">
         <v>25</v>
       </c>
     </row>
@@ -2404,10 +2471,10 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2417,16 +2484,64 @@
         <v>84</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G34" xr:uid="{C1CC3BD9-456D-4E7D-BEEE-B2388087F066}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G34">
-      <sortCondition ref="C2:C34"/>
+  <autoFilter ref="A2:G36" xr:uid="{C1CC3BD9-456D-4E7D-BEEE-B2388087F066}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G36">
+      <sortCondition ref="C2:C36"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>

--- a/document/【ファイルサーバ課題】残作業一覧.xlsx
+++ b/document/【ファイルサーバ課題】残作業一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12106e115a071dc4/デスクトップ/Git_backUp/1228/push_03/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{CEF5B223-7761-41CD-9893-A338EB2EB0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9418F369-E087-424A-BF57-AD0362887AC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E2EC4F-6637-4BDE-B9BD-9646FECAEBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{4C7B4C6A-6ECB-4802-A7E9-4F2F2897D9B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{4C7B4C6A-6ECB-4802-A7E9-4F2F2897D9B6}"/>
   </bookViews>
   <sheets>
     <sheet name="残作業一覧" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -924,14 +923,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※詳細は別資料にて管理
-ドキュメント未作成</t>
-    <rPh sb="18" eb="21">
-      <t>ミサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Junitテスト未完了</t>
     <rPh sb="8" eb="9">
       <t>ミ</t>
@@ -1292,6 +1283,26 @@
     </rPh>
     <rPh sb="26" eb="29">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※詳細は別資料にて管理
+【ファイルサーバ課題】未実装・例外パターン検討.xlsx</t>
+    <rPh sb="20" eb="22">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1680,29 +1691,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62D3F9B-2FAB-4529-9222-A911E0FD5260}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.2109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.78515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.78515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A36" si="0">ROW(A3)-2</f>
         <v>1</v>
@@ -1740,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>67</v>
@@ -1749,7 +1760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="55.3" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1773,7 +1784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="73.75" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1797,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="73.75" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1821,7 +1832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1836,7 +1847,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>68</v>
@@ -1845,7 +1856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1860,13 +1871,13 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1890,7 +1901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1914,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="55.3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1938,7 +1949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1962,7 +1973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1986,7 +1997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2010,7 +2021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2034,7 +2045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2058,7 +2069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2082,7 +2093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2106,7 +2117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2130,7 +2141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2154,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2166,10 +2177,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>67</v>
@@ -2178,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2202,7 +2213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2214,10 +2225,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>67</v>
@@ -2226,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2241,7 +2252,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>67</v>
@@ -2250,7 +2261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2265,7 +2276,7 @@
         <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>67</v>
@@ -2274,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2289,7 +2300,7 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>67</v>
@@ -2298,7 +2309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="92.15" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2310,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="73.75" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2334,19 +2345,19 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2358,19 +2369,19 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="73.75" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2382,19 +2393,19 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2406,19 +2417,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2430,19 +2441,19 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2454,19 +2465,19 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2478,19 +2489,19 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2505,16 +2516,16 @@
         <v>63</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2526,13 +2537,13 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36">
         <v>25</v>
